--- a/ql-async/config_plot.xlsx
+++ b/ql-async/config_plot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\notze\Documents\Code\Python\DES-QL\Code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kawasakiakira/computation/desql/ql-async/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44ADF883-6BA8-47D3-ADF4-D1D66EC238C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7751F23B-66E2-BA4E-8B87-A214CD7DC055}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="1632" windowWidth="23256" windowHeight="12576" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
+    <workbookView xWindow="1160" yWindow="460" windowWidth="32440" windowHeight="20540" xr2:uid="{674675E6-2A54-C347-ADED-B49AA95E9E97}"/>
   </bookViews>
   <sheets>
     <sheet name="smt" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,15 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
@@ -387,25 +396,25 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -433,12 +442,12 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -454,7 +463,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -753,16 +762,16 @@
   <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L24" sqref="L24"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="10" max="10" width="12.61328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -797,7 +806,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -832,7 +841,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -868,7 +877,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -882,13 +891,13 @@
         <v>108</v>
       </c>
       <c r="E4" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4" s="2" t="b">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="2" t="b">
         <v>0</v>
@@ -904,7 +913,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -921,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2" t="b">
         <v>0</v>
@@ -933,13 +942,13 @@
         <v>0</v>
       </c>
       <c r="J5" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K5">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -968,13 +977,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K6">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1003,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="J7" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K7">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.6">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1038,13 +1047,13 @@
         <v>0</v>
       </c>
       <c r="J8" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1073,13 +1082,13 @@
         <v>0</v>
       </c>
       <c r="J9" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K9">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1108,13 +1117,13 @@
         <v>0</v>
       </c>
       <c r="J10" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K10">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1143,13 +1152,13 @@
         <v>0</v>
       </c>
       <c r="J11" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K11">
         <v>1.5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1178,13 +1187,13 @@
         <v>0</v>
       </c>
       <c r="J12" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K12">
         <v>1.5</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1198,7 +1207,7 @@
         <v>109</v>
       </c>
       <c r="E13" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="b">
         <v>0</v>
@@ -1213,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="J13" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K13">
         <v>1.5</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1248,13 +1257,13 @@
         <v>0</v>
       </c>
       <c r="J14" s="2">
-        <v>-1</v>
+        <v>-0.1</v>
       </c>
       <c r="K14">
         <v>1.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1324,7 +1333,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1344,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="2" t="b">
         <v>0</v>
@@ -1353,13 +1362,13 @@
         <v>0</v>
       </c>
       <c r="J17" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K17" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1388,13 +1397,13 @@
         <v>0</v>
       </c>
       <c r="J18" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K18" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1423,13 +1432,13 @@
         <v>0</v>
       </c>
       <c r="J19" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K19" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1458,13 +1467,13 @@
         <v>0</v>
       </c>
       <c r="J20" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K20" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1493,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="J21" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K21" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1516,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2" t="b">
         <v>0</v>
@@ -1534,7 +1543,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1566,10 +1575,10 @@
         <v>200</v>
       </c>
       <c r="K23" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1598,13 +1607,13 @@
         <v>0</v>
       </c>
       <c r="J24" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K24" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1633,13 +1642,13 @@
         <v>0</v>
       </c>
       <c r="J25" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K25" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1668,13 +1677,13 @@
         <v>0</v>
       </c>
       <c r="J26" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="K26" s="2">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.6">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1703,13 +1712,13 @@
         <v>0</v>
       </c>
       <c r="J27" s="2">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="K27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1738,13 +1747,13 @@
         <v>0</v>
       </c>
       <c r="J28" s="2">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="K28" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1773,13 +1782,13 @@
         <v>0</v>
       </c>
       <c r="J29" s="2">
-        <v>-1</v>
+        <v>-12</v>
       </c>
       <c r="K29" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1808,13 +1817,13 @@
         <v>0</v>
       </c>
       <c r="J30" s="2">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K30" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1843,13 +1852,13 @@
         <v>0</v>
       </c>
       <c r="J31" s="2">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K31" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1878,13 +1887,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="2">
-        <v>-1</v>
+        <v>-1000</v>
       </c>
       <c r="K32" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1921,7 +1930,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1958,7 +1967,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1995,7 +2004,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>34</v>
       </c>
@@ -2024,13 +2033,13 @@
         <v>0</v>
       </c>
       <c r="J36" s="2">
-        <v>-1000</v>
+        <v>-180</v>
       </c>
       <c r="K36" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>35</v>
       </c>
@@ -2059,13 +2068,13 @@
         <v>0</v>
       </c>
       <c r="J37" s="2">
-        <v>-1000</v>
+        <v>-180</v>
       </c>
       <c r="K37" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>36</v>
       </c>
@@ -2094,13 +2103,13 @@
         <v>0</v>
       </c>
       <c r="J38" s="2">
-        <v>-1000</v>
+        <v>-180</v>
       </c>
       <c r="K38" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.6">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>37</v>
       </c>
@@ -2136,7 +2145,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>38</v>
       </c>
@@ -2172,7 +2181,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>39</v>
       </c>
@@ -2201,13 +2210,13 @@
         <v>0</v>
       </c>
       <c r="J41" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K41" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>40</v>
       </c>
@@ -2233,16 +2242,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K42" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>41</v>
       </c>
@@ -2271,13 +2280,13 @@
         <v>0</v>
       </c>
       <c r="J43" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K43" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>42</v>
       </c>
@@ -2306,13 +2315,13 @@
         <v>0</v>
       </c>
       <c r="J44" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K44" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>43</v>
       </c>
@@ -2341,13 +2350,13 @@
         <v>0</v>
       </c>
       <c r="J45" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K45" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>44</v>
       </c>
@@ -2376,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="J46" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K46" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>45</v>
       </c>
@@ -2411,13 +2420,13 @@
         <v>0</v>
       </c>
       <c r="J47" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K47" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>46</v>
       </c>
@@ -2446,13 +2455,13 @@
         <v>0</v>
       </c>
       <c r="J48" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K48" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>47</v>
       </c>
@@ -2481,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="J49" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K49" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>48</v>
       </c>
@@ -2516,13 +2525,13 @@
         <v>0</v>
       </c>
       <c r="J50" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K50" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>49</v>
       </c>
@@ -2551,13 +2560,13 @@
         <v>0</v>
       </c>
       <c r="J51" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K51" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>50</v>
       </c>
@@ -2586,13 +2595,13 @@
         <v>0</v>
       </c>
       <c r="J52" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K52" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>51</v>
       </c>
@@ -2621,13 +2630,13 @@
         <v>0</v>
       </c>
       <c r="J53" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K53" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>52</v>
       </c>
@@ -2656,13 +2665,13 @@
         <v>0</v>
       </c>
       <c r="J54" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K54" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>53</v>
       </c>
@@ -2691,13 +2700,13 @@
         <v>0</v>
       </c>
       <c r="J55" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K55" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>54</v>
       </c>
@@ -2726,13 +2735,13 @@
         <v>0</v>
       </c>
       <c r="J56" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K56" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>55</v>
       </c>
@@ -2761,13 +2770,13 @@
         <v>0</v>
       </c>
       <c r="J57" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K57" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>56</v>
       </c>
@@ -2796,13 +2805,13 @@
         <v>0</v>
       </c>
       <c r="J58" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K58" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2831,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="J59" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K59" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>58</v>
       </c>
@@ -2866,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="J60" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K60" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>59</v>
       </c>
@@ -2901,13 +2910,13 @@
         <v>0</v>
       </c>
       <c r="J61" s="2">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="K61" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>60</v>
       </c>
@@ -2933,16 +2942,16 @@
         <v>0</v>
       </c>
       <c r="I62" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="K62" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>61</v>
       </c>
@@ -2974,10 +2983,10 @@
         <v>0</v>
       </c>
       <c r="K63" s="2">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.6">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>62</v>
       </c>
@@ -3006,13 +3015,13 @@
         <v>0</v>
       </c>
       <c r="J64" s="2">
-        <v>0</v>
+        <v>-5</v>
       </c>
       <c r="K64" s="2">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.6">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>63</v>
       </c>
@@ -3047,7 +3056,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>64</v>
       </c>
@@ -3076,13 +3085,13 @@
         <v>0</v>
       </c>
       <c r="J66" s="2">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>65</v>
       </c>
@@ -3117,7 +3126,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
@@ -3125,7 +3134,7 @@
       <c r="I76" s="1"/>
       <c r="J76" s="1"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
@@ -3133,7 +3142,7 @@
       <c r="I77" s="1"/>
       <c r="J77" s="1"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
@@ -3141,7 +3150,7 @@
       <c r="I78" s="1"/>
       <c r="J78" s="1"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
@@ -3149,7 +3158,7 @@
       <c r="I79" s="1"/>
       <c r="J79" s="1"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.6">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
@@ -3157,7 +3166,7 @@
       <c r="I80" s="1"/>
       <c r="J80" s="1"/>
     </row>
-    <row r="81" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="81" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
@@ -3165,7 +3174,7 @@
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="82" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
@@ -3173,7 +3182,7 @@
       <c r="I82" s="1"/>
       <c r="J82" s="1"/>
     </row>
-    <row r="83" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="83" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
@@ -3181,7 +3190,7 @@
       <c r="I83" s="1"/>
       <c r="J83" s="1"/>
     </row>
-    <row r="84" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="84" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
@@ -3189,7 +3198,7 @@
       <c r="I84" s="1"/>
       <c r="J84" s="1"/>
     </row>
-    <row r="85" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="85" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
@@ -3197,7 +3206,7 @@
       <c r="I85" s="1"/>
       <c r="J85" s="1"/>
     </row>
-    <row r="86" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="86" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
@@ -3205,7 +3214,7 @@
       <c r="I86" s="1"/>
       <c r="J86" s="1"/>
     </row>
-    <row r="87" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="87" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
@@ -3213,7 +3222,7 @@
       <c r="I87" s="1"/>
       <c r="J87" s="1"/>
     </row>
-    <row r="88" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="88" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
@@ -3221,7 +3230,7 @@
       <c r="I88" s="1"/>
       <c r="J88" s="1"/>
     </row>
-    <row r="89" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="89" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
@@ -3229,7 +3238,7 @@
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
     </row>
-    <row r="90" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="90" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
@@ -3237,7 +3246,7 @@
       <c r="I90" s="1"/>
       <c r="J90" s="1"/>
     </row>
-    <row r="91" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="91" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
@@ -3245,7 +3254,7 @@
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
     </row>
-    <row r="92" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="92" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
@@ -3253,7 +3262,7 @@
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
     </row>
-    <row r="93" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="93" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
@@ -3261,7 +3270,7 @@
       <c r="I93" s="1"/>
       <c r="J93" s="1"/>
     </row>
-    <row r="94" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="94" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
@@ -3269,7 +3278,7 @@
       <c r="I94" s="1"/>
       <c r="J94" s="1"/>
     </row>
-    <row r="95" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="95" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
@@ -3277,7 +3286,7 @@
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
     </row>
-    <row r="96" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="96" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
@@ -3285,7 +3294,7 @@
       <c r="I96" s="1"/>
       <c r="J96" s="1"/>
     </row>
-    <row r="97" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="97" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
@@ -3293,7 +3302,7 @@
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
     </row>
-    <row r="98" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="98" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
@@ -3301,7 +3310,7 @@
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
     </row>
-    <row r="99" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="99" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
@@ -3309,7 +3318,7 @@
       <c r="I99" s="1"/>
       <c r="J99" s="1"/>
     </row>
-    <row r="100" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="100" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
@@ -3317,7 +3326,7 @@
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
     </row>
-    <row r="101" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="101" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
@@ -3325,7 +3334,7 @@
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
     </row>
-    <row r="102" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="102" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E102" s="1"/>
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
@@ -3333,7 +3342,7 @@
       <c r="I102" s="1"/>
       <c r="J102" s="1"/>
     </row>
-    <row r="103" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="103" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E103" s="1"/>
       <c r="F103" s="1"/>
       <c r="G103" s="1"/>
@@ -3341,7 +3350,7 @@
       <c r="I103" s="1"/>
       <c r="J103" s="1"/>
     </row>
-    <row r="104" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="104" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E104" s="1"/>
       <c r="F104" s="1"/>
       <c r="G104" s="1"/>
@@ -3349,7 +3358,7 @@
       <c r="I104" s="1"/>
       <c r="J104" s="1"/>
     </row>
-    <row r="105" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="105" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E105" s="1"/>
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
@@ -3357,7 +3366,7 @@
       <c r="I105" s="1"/>
       <c r="J105" s="1"/>
     </row>
-    <row r="106" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="106" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E106" s="1"/>
       <c r="F106" s="1"/>
       <c r="G106" s="1"/>
@@ -3365,7 +3374,7 @@
       <c r="I106" s="1"/>
       <c r="J106" s="1"/>
     </row>
-    <row r="107" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="107" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E107" s="1"/>
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
@@ -3373,7 +3382,7 @@
       <c r="I107" s="1"/>
       <c r="J107" s="1"/>
     </row>
-    <row r="108" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="108" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E108" s="1"/>
       <c r="F108" s="1"/>
       <c r="G108" s="1"/>
@@ -3381,7 +3390,7 @@
       <c r="I108" s="1"/>
       <c r="J108" s="1"/>
     </row>
-    <row r="109" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="109" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E109" s="1"/>
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
@@ -3389,7 +3398,7 @@
       <c r="I109" s="1"/>
       <c r="J109" s="1"/>
     </row>
-    <row r="110" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="110" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
       <c r="G110" s="1"/>
@@ -3397,7 +3406,7 @@
       <c r="I110" s="1"/>
       <c r="J110" s="1"/>
     </row>
-    <row r="111" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="111" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E111" s="1"/>
       <c r="F111" s="1"/>
       <c r="G111" s="1"/>
@@ -3405,7 +3414,7 @@
       <c r="I111" s="1"/>
       <c r="J111" s="1"/>
     </row>
-    <row r="112" spans="5:10" x14ac:dyDescent="0.6">
+    <row r="112" spans="5:10" x14ac:dyDescent="0.2">
       <c r="E112" s="1"/>
       <c r="F112" s="1"/>
       <c r="G112" s="1"/>
@@ -3434,9 +3443,9 @@
       <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="20" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>99</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3471,7 +3480,7 @@
       </c>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3486,7 +3495,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3501,7 +3510,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3516,7 +3525,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3531,7 +3540,7 @@
       </c>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3546,7 +3555,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3561,7 +3570,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3576,7 +3585,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3591,7 +3600,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3606,7 +3615,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3621,7 +3630,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
